--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>reactor</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>IPB3_ipbx-h2-q-cali-250-325c_1-16-17_day-05.csv</t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -932,13 +935,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,10 +975,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1004,11 +1012,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0.9</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1039,11 +1050,14 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0.9</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1074,11 +1088,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1109,11 +1126,14 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1144,11 +1164,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1179,11 +1202,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1214,7 +1240,10 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
     </row>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="1350" yWindow="255" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-32" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>reactor</t>
   </si>
@@ -88,25 +88,37 @@
     <t>IPB3_Seq_ipbx-h2-q-cali-9167_DIFF_Probes_day-01.csv</t>
   </si>
   <si>
-    <t>q-h2-mulitple-qp-150-400c</t>
-  </si>
-  <si>
     <t>IPB3_ipbx-h2-q-cali-250-325c_1-12-17_day-01.csv</t>
   </si>
   <si>
     <t>q-h2-mulitple-qp-250-325c</t>
   </si>
   <si>
-    <t>ipb3-33</t>
-  </si>
-  <si>
-    <t>2016-12-19-16-crio-V181-CORE_B32_H3</t>
-  </si>
-  <si>
     <t>IPB3_ipbx-h2-q-cali-250-325c_1-16-17_day-05.csv</t>
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>IPB3_DC_CAL_SEQ_150C-400C_H2_12-30_day-01.csv</t>
+  </si>
+  <si>
+    <t>dc-h2-150-400c</t>
+  </si>
+  <si>
+    <t>IPB3_DC_CAL_SEQ_150C-400C_Helium_1-2-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>dc-he-150-400c</t>
+  </si>
+  <si>
+    <t>IPB3_Seq_ipbx-h2-q-cali-150-400c_01-05-16_day-1.csv</t>
+  </si>
+  <si>
+    <t>q-h2-150-400c</t>
+  </si>
+  <si>
+    <t>q-h2-mulitple-qp-150-400c (Not good)</t>
   </si>
 </sst>
 </file>
@@ -935,13 +947,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -975,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -1013,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -1051,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -1089,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -1127,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -1141,16 +1158,16 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>1112017</v>
+        <v>12312016</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>37</v>
-      </c>
       <c r="F6">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1162,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,16 +1196,16 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>1132017</v>
+        <v>1022017</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1197,54 +1214,168 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8">
+        <v>1092017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1112017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1132017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
         <v>1172017</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="D11" t="s">
         <v>26</v>
+      </c>
+      <c r="E11">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="255" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="8205" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-32" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>reactor</t>
   </si>
@@ -40,9 +40,6 @@
     <t>endOffset</t>
   </si>
   <si>
-    <t>isHe</t>
-  </si>
-  <si>
     <t>isDC</t>
   </si>
   <si>
@@ -119,6 +116,45 @@
   </si>
   <si>
     <t>q-h2-mulitple-qp-150-400c (Not good)</t>
+  </si>
+  <si>
+    <t>120716</t>
+  </si>
+  <si>
+    <t>120916</t>
+  </si>
+  <si>
+    <t>121516</t>
+  </si>
+  <si>
+    <t>121816</t>
+  </si>
+  <si>
+    <t>123116</t>
+  </si>
+  <si>
+    <t>010217</t>
+  </si>
+  <si>
+    <t>010917</t>
+  </si>
+  <si>
+    <t>011117</t>
+  </si>
+  <si>
+    <t>011317</t>
+  </si>
+  <si>
+    <t>011717</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
@@ -603,8 +639,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,14 +986,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -986,30 +1024,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2">
-        <v>12072016</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1023,8 +1061,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>44</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1033,21 +1071,21 @@
         <v>0.78</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>12092016</v>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1061,8 +1099,8 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1071,21 +1109,21 @@
         <v>0.78</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4">
-        <v>12152016</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1099,8 +1137,8 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>44</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1109,21 +1147,21 @@
         <v>0.78</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>12182016</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1137,8 +1175,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>44</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1147,21 +1185,21 @@
         <v>0.78</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>12312016</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>23</v>
@@ -1175,8 +1213,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="I6" t="s">
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1185,21 +1223,21 @@
         <v>0.78</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>1022017</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -1213,8 +1251,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="I7" t="s">
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1223,21 +1261,21 @@
         <v>0.78</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>1092017</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -1251,8 +1289,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>45</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1261,21 +1299,21 @@
         <v>0.78</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9">
-        <v>1112017</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>37</v>
@@ -1289,8 +1327,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>45</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1299,21 +1337,21 @@
         <v>0.78</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>1132017</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>43</v>
@@ -1327,8 +1365,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1337,21 +1375,21 @@
         <v>0.78</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1172017</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>49</v>
@@ -1365,8 +1403,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>45</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1375,7 +1413,7 @@
         <v>0.78</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="8205" windowHeight="11655"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19335" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-32" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>reactor</t>
   </si>
@@ -100,9 +100,6 @@
     <t>IPB3_DC_CAL_SEQ_150C-400C_H2_12-30_day-01.csv</t>
   </si>
   <si>
-    <t>dc-h2-150-400c</t>
-  </si>
-  <si>
     <t>IPB3_DC_CAL_SEQ_150C-400C_Helium_1-2-17_day-01.csv</t>
   </si>
   <si>
@@ -155,6 +152,12 @@
   </si>
   <si>
     <t>gas</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>dc-h2-150-400c-eliminate400c</t>
   </si>
 </sst>
 </file>
@@ -984,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1001,7 @@
     <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1035,8 +1038,11 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1074,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1100,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1112,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1150,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1176,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1188,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1208,13 +1214,13 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1223,10 +1229,10 @@
         <v>0.78</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1234,10 +1240,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -1252,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1261,10 +1267,10 @@
         <v>0.78</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1272,10 +1278,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -1290,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1299,10 +1305,10 @@
         <v>0.78</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1328,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1337,10 +1343,10 @@
         <v>0.78</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1366,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1378,7 +1384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>reactor</t>
   </si>
@@ -158,13 +158,16 @@
   </si>
   <si>
     <t>dc-h2-150-400c-eliminate400c</t>
+  </si>
+  <si>
+    <t>v1 v2 measurement is off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +299,34 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -642,9 +673,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,435 +1027,447 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.78</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>0.78</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.78</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="4">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4">
         <v>7</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0.78</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>28</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>29</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>0.78</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>35</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>35</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>0.78</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>37</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>38</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.78</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>43</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>46</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.78</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>51</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0.78</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>reactor</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>v1 v2 measurement is off</t>
+  </si>
+  <si>
+    <t>termRes</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1041,13 +1044,13 @@
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1082,13 +1085,16 @@
         <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,11 +1128,14 @@
       <c r="K2" s="1">
         <v>0.78</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1160,11 +1169,14 @@
       <c r="K3" s="4">
         <v>0.78</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,11 +1210,14 @@
       <c r="K4" s="1">
         <v>0.78</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,11 +1251,14 @@
       <c r="K5" s="1">
         <v>0.78</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1274,11 +1292,14 @@
       <c r="K6" s="4">
         <v>0.78</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1312,11 +1333,14 @@
       <c r="K7" s="4">
         <v>0.78</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1350,14 +1374,17 @@
       <c r="K8" s="6">
         <v>0.78</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,11 +1418,14 @@
       <c r="K9" s="1">
         <v>0.78</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1429,11 +1459,14 @@
       <c r="K10" s="4">
         <v>0.78</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1500,10 @@
       <c r="K11" s="4">
         <v>0.78</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>reactor</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>termRes</t>
+  </si>
+  <si>
+    <t>multiple q-pulse length 150 91.67</t>
+  </si>
+  <si>
+    <t>not work so far, since q-pulse length with different dimension.</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M2" sqref="M2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1044,13 +1053,15 @@
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1088,13 +1099,16 @@
         <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,11 +1145,14 @@
       <c r="L2" s="1">
         <v>1.93</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>181</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1172,11 +1189,14 @@
       <c r="L3" s="4">
         <v>1.93</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1">
+        <v>181</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,11 +1233,14 @@
       <c r="L4" s="1">
         <v>1.93</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>181</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,11 +1277,14 @@
       <c r="L5" s="1">
         <v>1.93</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1">
+        <v>181</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1295,11 +1321,14 @@
       <c r="L6" s="4">
         <v>1.93</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1">
+        <v>181</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1336,11 +1365,14 @@
       <c r="L7" s="4">
         <v>1.93</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="1">
+        <v>181</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1377,14 +1409,17 @@
       <c r="L8" s="1">
         <v>1.93</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="1">
+        <v>181</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1421,11 +1456,14 @@
       <c r="L9" s="1">
         <v>1.93</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1">
+        <v>181</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1462,11 +1500,14 @@
       <c r="L10" s="4">
         <v>1.93</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="1">
+        <v>181</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1503,8 +1544,58 @@
       <c r="L11" s="4">
         <v>1.93</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="1">
+        <v>181</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="M12" s="1">
+        <v>181</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-32.xlsx
+++ b/matlab/ipb3-32.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ipb3-32" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>reactor</t>
   </si>
@@ -109,9 +109,6 @@
     <t>IPB3_Seq_ipbx-h2-q-cali-150-400c_01-05-16_day-1.csv</t>
   </si>
   <si>
-    <t>q-h2-150-400c</t>
-  </si>
-  <si>
     <t>q-h2-mulitple-qp-150-400c (Not good)</t>
   </si>
   <si>
@@ -154,32 +151,32 @@
     <t>gas</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>dc-h2-150-400c-eliminate400c</t>
   </si>
   <si>
-    <t>v1 v2 measurement is off</t>
-  </si>
-  <si>
     <t>termRes</t>
   </si>
   <si>
-    <t>multiple q-pulse length 150 91.67</t>
-  </si>
-  <si>
-    <t>not work so far, since q-pulse length with different dimension.</t>
-  </si>
-  <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>q-h2-150-400c (v1,v2 measurement if off)</t>
+  </si>
+  <si>
+    <t>multiple q-pulse length 150 91.67(not work so far, since q-pulse length with different dimension.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,27 +314,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -685,15 +667,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -744,6 +724,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1039,10 +1022,10 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M12"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1056,56 +1039,56 @@
     <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="79.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>52</v>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1116,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1134,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1148,51 +1131,57 @@
       <c r="M2" s="1">
         <v>181</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>0.78</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>1.93</v>
       </c>
       <c r="M3" s="1">
         <v>181</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1204,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -1222,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1236,7 +1225,10 @@
       <c r="M4" s="1">
         <v>181</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1248,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -1266,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1280,130 +1272,139 @@
       <c r="M5" s="1">
         <v>181</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>23</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>0.78</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>1.93</v>
       </c>
       <c r="M6" s="1">
         <v>181</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>28</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>29</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>0.78</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>1.93</v>
       </c>
       <c r="M7" s="1">
         <v>181</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>35</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>35</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.78</v>
       </c>
       <c r="L8" s="1">
@@ -1412,11 +1413,11 @@
       <c r="M8" s="1">
         <v>181</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>31</v>
+      <c r="N8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1427,7 +1428,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1445,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1459,140 +1460,149 @@
       <c r="M9" s="1">
         <v>181</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
+      <c r="N9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>43</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>46</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.78</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>1.93</v>
       </c>
       <c r="M10" s="1">
         <v>181</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>49</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>51</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>0.78</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>1.93</v>
       </c>
       <c r="M11" s="1">
         <v>181</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>16</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.78</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>1.93</v>
       </c>
       <c r="M12" s="1">
         <v>181</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>51</v>
